--- a/src/analysis_examples/circadb/results_jtk/cosinor_10527538_rasl11a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10527538_rasl11a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21383279912689984, 0.339424623888892]</t>
+          <t>[0.21259678647432917, 0.34066063654146267]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.781454674533506e-09</v>
+        <v>1.221066558976247e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>8.781454674533506e-09</v>
+        <v>1.221066558976247e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8427896207828471</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38235323022581047, 0.4473761153481748]</t>
+          <t>[0.382372303150775, 0.4473570424232103]</t>
         </is>
       </c>
       <c r="U2" t="n">
